--- a/bots/crawl_ch/output/bread_coop_2023-01-15.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-01-15.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -2640,7 +2640,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -2855,7 +2855,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -2924,7 +2924,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -3488,7 +3488,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -3995,7 +3995,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -4502,7 +4502,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -4790,7 +4790,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -4859,7 +4859,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -5074,7 +5074,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -5512,7 +5512,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -5654,7 +5654,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -5727,7 +5727,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5796,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -5869,7 +5869,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -5938,7 +5938,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -6007,7 +6007,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -6076,7 +6076,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -6149,7 +6149,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -6222,7 +6222,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -6291,7 +6291,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -6360,7 +6360,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -6502,7 +6502,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -6575,7 +6575,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -6717,7 +6717,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -6790,7 +6790,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -6863,7 +6863,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -6932,7 +6932,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -7005,7 +7005,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -7078,7 +7078,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -7224,7 +7224,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -7297,7 +7297,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -7370,7 +7370,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -7443,7 +7443,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -7516,7 +7516,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -7585,7 +7585,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -7658,7 +7658,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -7731,7 +7731,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -7800,7 +7800,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -7865,7 +7865,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -7934,7 +7934,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -8007,7 +8007,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -8076,7 +8076,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -8145,7 +8145,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -8214,7 +8214,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -8287,7 +8287,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -8356,7 +8356,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -8429,7 +8429,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -8498,7 +8498,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -8567,7 +8567,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -8636,7 +8636,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -8709,7 +8709,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -8778,7 +8778,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -8851,7 +8851,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -8924,7 +8924,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -8997,7 +8997,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -9070,7 +9070,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -9143,7 +9143,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -9216,7 +9216,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -9285,7 +9285,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -9358,7 +9358,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -9427,7 +9427,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -9496,7 +9496,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -9569,7 +9569,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -9638,7 +9638,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -9711,7 +9711,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -9780,7 +9780,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -9853,7 +9853,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -9926,7 +9926,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -9995,7 +9995,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -10068,7 +10068,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -10141,7 +10141,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -10210,7 +10210,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -10279,7 +10279,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -10348,7 +10348,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -10421,7 +10421,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -10490,7 +10490,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -10559,7 +10559,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -10628,7 +10628,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -10697,7 +10697,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -10770,7 +10770,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -10843,7 +10843,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -10912,7 +10912,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -10981,7 +10981,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -11054,7 +11054,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -11123,7 +11123,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11196,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -11269,7 +11269,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -11338,7 +11338,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -11407,7 +11407,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -11476,7 +11476,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -11549,7 +11549,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -11622,7 +11622,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -11691,7 +11691,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -11764,7 +11764,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -11833,7 +11833,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -11902,7 +11902,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -11975,7 +11975,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -12048,7 +12048,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -12117,7 +12117,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -12190,7 +12190,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -12263,7 +12263,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -12332,7 +12332,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -12401,7 +12401,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -12474,7 +12474,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -12547,7 +12547,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -12616,7 +12616,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -12685,7 +12685,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -12758,7 +12758,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -12827,7 +12827,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -12896,7 +12896,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -12969,7 +12969,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -13038,7 +13038,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -13107,7 +13107,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -13180,7 +13180,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -13253,7 +13253,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -13326,7 +13326,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -13399,7 +13399,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -13468,7 +13468,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -13541,7 +13541,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -13610,7 +13610,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -13679,7 +13679,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -13748,7 +13748,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -13817,7 +13817,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -13886,7 +13886,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -13959,7 +13959,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -14028,7 +14028,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -14101,7 +14101,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -14170,7 +14170,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -14243,7 +14243,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -14316,7 +14316,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -14385,7 +14385,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -14454,7 +14454,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -14527,7 +14527,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -14600,7 +14600,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -14669,7 +14669,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -14742,7 +14742,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -14815,7 +14815,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -14888,7 +14888,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -14957,7 +14957,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -15030,7 +15030,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -15099,7 +15099,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -15172,7 +15172,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -15241,7 +15241,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -15314,7 +15314,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -15383,7 +15383,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -15456,7 +15456,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -15525,7 +15525,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -15598,7 +15598,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -15671,7 +15671,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -15740,7 +15740,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -15809,7 +15809,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -15882,7 +15882,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -15955,7 +15955,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -16024,7 +16024,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -16097,7 +16097,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -16166,7 +16166,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -16235,7 +16235,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -16308,7 +16308,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -16377,7 +16377,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -16446,7 +16446,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -16519,7 +16519,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -16592,7 +16592,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -16661,7 +16661,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -16730,7 +16730,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -16803,7 +16803,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -16872,7 +16872,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -16941,7 +16941,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -17010,7 +17010,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -17079,7 +17079,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -17148,7 +17148,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -17217,7 +17217,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -17286,7 +17286,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -17355,7 +17355,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -17428,7 +17428,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -17497,7 +17497,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -17570,7 +17570,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -17639,7 +17639,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -17712,7 +17712,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -17783,7 +17783,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -17856,7 +17856,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -17929,7 +17929,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -17998,7 +17998,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -18065,7 +18065,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -18134,7 +18134,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -18203,7 +18203,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -18272,7 +18272,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -18341,7 +18341,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -18410,7 +18410,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -18483,7 +18483,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -18552,7 +18552,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -18621,7 +18621,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -18690,7 +18690,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -18759,7 +18759,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -18830,7 +18830,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -18899,7 +18899,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -18968,7 +18968,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -19041,7 +19041,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -19114,7 +19114,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -19183,7 +19183,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -19256,7 +19256,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -19329,7 +19329,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -19398,7 +19398,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -19471,7 +19471,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -19540,7 +19540,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -19613,7 +19613,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -19682,7 +19682,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -19755,7 +19755,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -19828,7 +19828,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -19897,7 +19897,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -19966,7 +19966,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -20035,7 +20035,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -20108,7 +20108,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -20177,7 +20177,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -20246,7 +20246,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -20315,7 +20315,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -20384,7 +20384,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -20457,7 +20457,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -20530,7 +20530,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -20599,7 +20599,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -20672,7 +20672,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -20745,7 +20745,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -20818,7 +20818,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -20887,7 +20887,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -20960,7 +20960,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -21027,7 +21027,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -21100,7 +21100,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -21167,7 +21167,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -21240,7 +21240,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -21309,7 +21309,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -21382,7 +21382,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -21455,7 +21455,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -21524,7 +21524,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -21593,7 +21593,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -21666,7 +21666,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -21735,7 +21735,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -21804,7 +21804,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -21873,7 +21873,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -21942,7 +21942,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -22015,7 +22015,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -22084,7 +22084,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -22153,7 +22153,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -22226,7 +22226,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -22299,7 +22299,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -22368,7 +22368,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -22437,7 +22437,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -22506,7 +22506,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -22575,7 +22575,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -22644,7 +22644,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -22713,7 +22713,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -22782,7 +22782,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -22855,7 +22855,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -22924,7 +22924,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -22997,7 +22997,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -23066,7 +23066,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -23135,7 +23135,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -23204,7 +23204,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -23273,7 +23273,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -23342,7 +23342,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -23411,7 +23411,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -23484,7 +23484,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -23557,7 +23557,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -23630,7 +23630,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -23699,7 +23699,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -23768,7 +23768,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -23837,7 +23837,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -23906,7 +23906,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -23975,7 +23975,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -24044,7 +24044,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -24113,7 +24113,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -24182,7 +24182,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -24251,7 +24251,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -24320,7 +24320,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -24389,7 +24389,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -24458,7 +24458,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -24527,7 +24527,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -24596,7 +24596,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -24665,7 +24665,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -24738,7 +24738,7 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -24811,7 +24811,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -24878,7 +24878,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -24947,7 +24947,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -25016,7 +25016,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -25083,7 +25083,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -25152,7 +25152,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -25221,7 +25221,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -25290,7 +25290,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -25361,7 +25361,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -25428,7 +25428,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -25497,7 +25497,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -25566,7 +25566,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -25633,7 +25633,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -25702,7 +25702,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -25771,7 +25771,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -25844,7 +25844,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -25917,7 +25917,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -25990,7 +25990,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -26059,7 +26059,7 @@
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -26128,7 +26128,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -26201,7 +26201,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -26270,7 +26270,7 @@
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -26339,7 +26339,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -26412,7 +26412,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -26485,7 +26485,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -26558,7 +26558,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -26629,7 +26629,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -26696,7 +26696,7 @@
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -26769,7 +26769,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -26838,7 +26838,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -26911,7 +26911,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -26984,7 +26984,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -27057,7 +27057,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -27130,7 +27130,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -27199,7 +27199,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -27270,7 +27270,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -27339,7 +27339,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -27406,7 +27406,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -27475,7 +27475,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -27548,7 +27548,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -27621,7 +27621,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -27694,7 +27694,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -27763,7 +27763,7 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -27832,7 +27832,7 @@
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -27899,7 +27899,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -27966,7 +27966,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -28035,7 +28035,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -28104,7 +28104,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -28173,7 +28173,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -28242,7 +28242,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -28309,7 +28309,7 @@
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -28378,7 +28378,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
@@ -28445,7 +28445,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-01-15 06:49:26</t>
+          <t>2023-01-15 12:54:58</t>
         </is>
       </c>
     </row>
